--- a/biology/Zoologie/Dendrothrips/Dendrothrips.xlsx
+++ b/biology/Zoologie/Dendrothrips/Dendrothrips.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrothrips  est un genre d'insectes thysanoptères de la famille des Thripidae, originaire de l'Ancien Monde.
 Ce genre comprend une cinquantaine d'espèces, principalement d'Afrique et d'Asie. L'espèce type est Dendrothrips ornatus, le thrips des arbustes d'ornement.
@@ -512,16 +524,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (24 septembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (24 septembre 2014) :
 Dendrothrips degeeri Uzel, 1895
 Dendrothrips ornatus (Jablonowski, 1894)
 Dendrothrips saltator Uzel, 1895
-Selon NCBI  (24 septembre 2014)[2] :
+Selon NCBI  (24 septembre 2014) :
 Dendrothrips degeeri
 Dendrothrips minowai
-Selon Paleobiology Database                   (24 septembre 2014)[3] :
+Selon Paleobiology Database                   (24 septembre 2014) :
 Dendrothrips giecewiczi</t>
         </is>
       </c>
